--- a/DATA_goal/Junction_Flooding_295.xlsx
+++ b/DATA_goal/Junction_Flooding_295.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="8" max="8"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
+    <col width="6" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>41727.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>15.85</v>
+        <v>1.59</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>10.49</v>
+        <v>1.05</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.74</v>
+        <v>0.37</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>33.76</v>
+        <v>3.38</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>26.1</v>
+        <v>2.61</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>12.38</v>
+        <v>1.24</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>37.78</v>
+        <v>3.78</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>19.2</v>
+        <v>1.92</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>7.83</v>
+        <v>0.78</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>11.63</v>
+        <v>1.16</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>13.33</v>
+        <v>1.33</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>13.95</v>
+        <v>1.4</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.98</v>
+        <v>0.4</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>12.41</v>
+        <v>1.24</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>17.16</v>
+        <v>1.72</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>10.86</v>
+        <v>1.09</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.13</v>
+        <v>0.31</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.01</v>
+        <v>0.2</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>181.47</v>
+        <v>18.15</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>34.41</v>
+        <v>3.44</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>11.45</v>
+        <v>1.15</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>22.3</v>
+        <v>2.23</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>11.28</v>
+        <v>1.13</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>3.17</v>
+        <v>0.32</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>19.35</v>
+        <v>1.93</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>10.12</v>
+        <v>1.01</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>9.109999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>10.92</v>
+        <v>1.09</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>14.04</v>
+        <v>1.4</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.31</v>
+        <v>0.33</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>33.91</v>
+        <v>3.39</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>6.11</v>
+        <v>0.61</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>14.32</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41727.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>12.88</v>
+        <v>1.29</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>8.99</v>
+        <v>0.9</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.66</v>
+        <v>0.17</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>27.87</v>
+        <v>2.79</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>22</v>
+        <v>2.2</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>10.05</v>
+        <v>1</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>39.04</v>
+        <v>3.9</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>15.59</v>
+        <v>1.56</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>6.66</v>
+        <v>0.67</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>9.710000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>11.12</v>
+        <v>1.11</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>11.69</v>
+        <v>1.17</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.24</v>
+        <v>0.32</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>10.08</v>
+        <v>1.01</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>14.13</v>
+        <v>1.41</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>8.82</v>
+        <v>0.88</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.45</v>
+        <v>0.14</v>
       </c>
       <c r="S3" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="X3" s="4" t="n">
         <v>0.96</v>
       </c>
-      <c r="T3" s="4" t="n">
-        <v>146.04</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>28.22</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>18.54</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>9.6</v>
-      </c>
       <c r="Y3" s="4" t="n">
-        <v>2.03</v>
+        <v>0.2</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>19.04</v>
+        <v>1.9</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>8.210000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>7.43</v>
+        <v>0.74</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>8.789999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>11.69</v>
+        <v>1.17</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.25</v>
+        <v>0.12</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>35.86</v>
+        <v>3.59</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>5.05</v>
+        <v>0.5</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>11.63</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41727.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>8.17</v>
+        <v>0.82</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>5.68</v>
+        <v>0.57</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.03</v>
+        <v>0.1</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>17.71</v>
+        <v>1.77</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>13.9</v>
+        <v>1.39</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>6.35</v>
+        <v>0.64</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>26.86</v>
+        <v>2.69</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>9.890000000000001</v>
+        <v>0.99</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>4.23</v>
+        <v>0.42</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>6.09</v>
+        <v>0.61</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>7.08</v>
+        <v>0.71</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>7.46</v>
+        <v>0.75</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.06</v>
+        <v>0.21</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>6.39</v>
+        <v>0.64</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>8.960000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>5.65</v>
+        <v>0.57</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.58</v>
+        <v>0.06</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>89.95999999999999</v>
+        <v>9</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>17.96</v>
+        <v>1.8</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>5.9</v>
+        <v>0.59</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>11.78</v>
+        <v>1.18</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>6.11</v>
+        <v>0.61</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.3</v>
+        <v>0.13</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>12.74</v>
+        <v>1.27</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>5.21</v>
+        <v>0.52</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>4.74</v>
+        <v>0.47</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>5.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>7.44</v>
+        <v>0.74</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>24.69</v>
+        <v>2.47</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3.18</v>
+        <v>0.32</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>7.38</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41727.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>13.74</v>
+        <v>1.37</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>9.99</v>
+        <v>1</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.01</v>
+        <v>0.1</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>29.86</v>
+        <v>2.99</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>24.11</v>
+        <v>2.41</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>10.75</v>
+        <v>1.07</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>40.5</v>
+        <v>4.05</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>16.64</v>
+        <v>1.66</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>7.3</v>
+        <v>0.73</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>10.74</v>
+        <v>1.07</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>11.97</v>
+        <v>1.2</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>12.66</v>
+        <v>1.27</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.45</v>
+        <v>0.35</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>10.75</v>
+        <v>1.08</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>15.22</v>
+        <v>1.52</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>9.19</v>
+        <v>0.92</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.77</v>
+        <v>0.08</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.64</v>
+        <v>0.06</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>156.33</v>
+        <v>15.63</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>30.02</v>
+        <v>3</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>9.93</v>
+        <v>0.99</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>20.03</v>
+        <v>2</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>10.5</v>
+        <v>1.05</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.75</v>
+        <v>0.18</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>19.77</v>
+        <v>1.98</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>8.77</v>
+        <v>0.88</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>7.83</v>
+        <v>0.78</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>9.210000000000001</v>
+        <v>0.92</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>12.58</v>
+        <v>1.26</v>
       </c>
       <c r="AE5" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="AG5" s="4" t="n">
         <v>0.55</v>
       </c>
-      <c r="AF5" s="4" t="n">
-        <v>36.76</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>5.52</v>
-      </c>
       <c r="AH5" s="4" t="n">
-        <v>12.41</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41727.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>19.12</v>
+        <v>1.91</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>14.1</v>
+        <v>1.41</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>1.07</v>
+        <v>0.11</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>41.58</v>
+        <v>4.16</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>33.9</v>
+        <v>3.39</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>14.99</v>
+        <v>1.5</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>57.28</v>
+        <v>5.73</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>23.15</v>
+        <v>2.32</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>10.27</v>
+        <v>1.03</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>15.19</v>
+        <v>1.52</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>16.68</v>
+        <v>1.67</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>17.65</v>
+        <v>1.76</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>4.81</v>
+        <v>0.48</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>14.96</v>
+        <v>1.5</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>21.28</v>
+        <v>2.13</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>12.63</v>
+        <v>1.26</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.68</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.75</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>220.44</v>
+        <v>22.04</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>41.83</v>
+        <v>4.18</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>13.81</v>
+        <v>1.38</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>28.09</v>
+        <v>2.81</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>14.73</v>
+        <v>1.47</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>2.23</v>
+        <v>0.22</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>28.04</v>
+        <v>2.8</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>12.2</v>
+        <v>1.22</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>10.81</v>
+        <v>1.08</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>12.73</v>
+        <v>1.27</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>17.53</v>
+        <v>1.75</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>52.1</v>
+        <v>5.21</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>7.76</v>
+        <v>0.78</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>17.27</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41727.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>19.89</v>
+        <v>1.99</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>14.72</v>
+        <v>1.47</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>1.02</v>
+        <v>0.1</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>43.25</v>
+        <v>4.33</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>35.36</v>
+        <v>3.54</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>15.6</v>
+        <v>1.56</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>61.04</v>
+        <v>6.1</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>24.08</v>
+        <v>2.41</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>10.72</v>
+        <v>1.07</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>15.86</v>
+        <v>1.59</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>17.36</v>
+        <v>1.74</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>18.37</v>
+        <v>1.84</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>15.56</v>
+        <v>1.56</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>22.17</v>
+        <v>2.22</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>13.09</v>
+        <v>1.31</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.6</v>
+        <v>0.06</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.73</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>229.6</v>
+        <v>22.96</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>43.54</v>
+        <v>4.35</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>14.37</v>
+        <v>1.44</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>29.29</v>
+        <v>2.93</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>15.36</v>
+        <v>1.54</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>2.27</v>
+        <v>0.23</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>29.65</v>
+        <v>2.96</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>12.69</v>
+        <v>1.27</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>11.23</v>
+        <v>1.12</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>13.21</v>
+        <v>1.32</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>18.24</v>
+        <v>1.82</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>55.52</v>
+        <v>5.55</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>8.09</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>17.96</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41727.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>9.130000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>6.67</v>
+        <v>0.67</v>
       </c>
       <c r="D8" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="H8" s="4" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="I8" s="4" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="J8" s="4" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="K8" s="4" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="L8" s="4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M8" s="4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="N8" s="4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="O8" s="4" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="P8" s="4" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Q8" s="4" t="n">
         <v>0.61</v>
       </c>
-      <c r="E8" s="4" t="n">
-        <v>19.85</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>16.06</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>7.13</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>31.64</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>11.05</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>7.16</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>7.97</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>8.44</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>10.17</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>6.09</v>
-      </c>
       <c r="R8" s="4" t="n">
-        <v>0.45</v>
+        <v>0.04</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.39</v>
+        <v>0.04</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>101.42</v>
+        <v>10.14</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>20.12</v>
+        <v>2.01</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>6.59</v>
+        <v>0.66</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>13.46</v>
+        <v>1.35</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>7.02</v>
+        <v>0.7</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>1.13</v>
+        <v>0.11</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>14.89</v>
+        <v>1.49</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>5.82</v>
+        <v>0.58</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>5.19</v>
+        <v>0.52</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>6.11</v>
+        <v>0.61</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>8.369999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>29.01</v>
+        <v>2.9</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>3.67</v>
+        <v>0.37</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>8.24</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="9">
@@ -1401,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>5.18</v>
+        <v>0.52</v>
       </c>
       <c r="I9" s="4" t="n">
         <v>0</v>
@@ -1440,22 +1440,22 @@
         <v>0</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="V9" s="4" t="n">
         <v>0</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="X9" s="4" t="n">
         <v>0</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>0.17</v>
+        <v>0.02</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>2.2</v>
+        <v>0.22</v>
       </c>
       <c r="AA9" s="4" t="n">
         <v>0</v>
@@ -1473,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>5.54</v>
+        <v>0.55</v>
       </c>
       <c r="AG9" s="4" t="n">
         <v>0</v>
@@ -1487,103 +1487,103 @@
         <v>41727.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>3.65</v>
+        <v>0.36</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>2.74</v>
+        <v>0.27</v>
       </c>
       <c r="D10" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F10" s="4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G10" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H10" s="4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I10" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="J10" s="4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="K10" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L10" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="M10" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="N10" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="O10" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="P10" s="4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="Q10" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="R10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T10" s="4" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="U10" s="4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="V10" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="W10" s="4" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="X10" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="Y10" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Z10" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AA10" s="4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AB10" s="4" t="n">
         <v>0.2</v>
       </c>
-      <c r="E10" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>7.02</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>9.74</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>3.64</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>36.69</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>4.72</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>2.02</v>
-      </c>
       <c r="AC10" s="4" t="n">
-        <v>2.41</v>
+        <v>0.24</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>3.34</v>
+        <v>0.33</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>8.43</v>
+        <v>0.84</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>1.55</v>
+        <v>0.15</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>3.23</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_295.xlsx
+++ b/DATA_goal/Junction_Flooding_295.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,10 +446,10 @@
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="6" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
     <col width="6" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
@@ -462,9 +462,9 @@
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="6" customWidth="1" min="26" max="26"/>
@@ -473,7 +473,7 @@
     <col width="6" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
     <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41727.34027777778</v>
+        <v>44976.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.59</v>
+        <v>0.88</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.05</v>
+        <v>0.62</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.37</v>
+        <v>0.28</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>3.38</v>
+        <v>1.96</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.61</v>
+        <v>1.42</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.24</v>
+        <v>0.59</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>3.78</v>
+        <v>1.93</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.92</v>
+        <v>1.1</v>
       </c>
       <c r="J2" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="L2" s="4" t="n">
         <v>0.78</v>
       </c>
-      <c r="K2" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>1.33</v>
-      </c>
       <c r="M2" s="4" t="n">
-        <v>1.4</v>
+        <v>0.87</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.4</v>
+        <v>0.29</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.24</v>
+        <v>0.71</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.72</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.09</v>
+        <v>0.68</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.31</v>
+        <v>0.16</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.2</v>
+        <v>0.08</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>18.15</v>
+        <v>10.13</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>3.44</v>
+        <v>1.96</v>
       </c>
       <c r="V2" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Z2" s="4" t="n">
         <v>1.15</v>
       </c>
-      <c r="W2" s="4" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>1.93</v>
-      </c>
       <c r="AA2" s="4" t="n">
-        <v>1.01</v>
+        <v>0.58</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.91</v>
+        <v>0.55</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.09</v>
+        <v>0.61</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.4</v>
+        <v>0.86</v>
       </c>
       <c r="AE2" s="4" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AF2" s="4" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AG2" s="4" t="n">
         <v>0.33</v>
       </c>
-      <c r="AF2" s="4" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="AG2" s="4" t="n">
-        <v>0.61</v>
-      </c>
       <c r="AH2" s="4" t="n">
-        <v>1.43</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41727.34722222222</v>
+        <v>44976.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.29</v>
+        <v>0.08</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.9</v>
+        <v>0.04</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.79</v>
+        <v>0.2</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.2</v>
+        <v>0.06</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1</v>
+        <v>0.02</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>3.9</v>
+        <v>0.65</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.56</v>
+        <v>0.11</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.67</v>
+        <v>0.04</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.97</v>
+        <v>0.03</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.11</v>
+        <v>0.06</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.17</v>
+        <v>0.1</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.32</v>
+        <v>0.06</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.01</v>
+        <v>0.08</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.41</v>
+        <v>0.09</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.88</v>
+        <v>0.11</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.14</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S3" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AD3" s="4" t="n">
         <v>0.1</v>
       </c>
-      <c r="T3" s="4" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>1.17</v>
-      </c>
       <c r="AE3" s="4" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>3.59</v>
+        <v>0.66</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.5</v>
+        <v>0.01</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.16</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41727.35416666666</v>
+        <v>44976.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.82</v>
+        <v>2.39</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.57</v>
+        <v>1.78</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.77</v>
+        <v>5.22</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.39</v>
+        <v>4.25</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.64</v>
+        <v>1.85</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>2.69</v>
+        <v>6.65</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.99</v>
+        <v>2.9</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.42</v>
+        <v>1.29</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.61</v>
+        <v>1.91</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.71</v>
+        <v>2.09</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.75</v>
+        <v>2.23</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.21</v>
+        <v>0.62</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.64</v>
+        <v>1.88</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.9</v>
+        <v>2.66</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.57</v>
+        <v>1.59</v>
       </c>
       <c r="R4" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="S4" s="4" t="n">
         <v>0.09</v>
       </c>
-      <c r="S4" s="4" t="n">
+      <c r="T4" s="4" t="n">
+        <v>27.87</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AE4" s="4" t="n">
         <v>0.06</v>
       </c>
-      <c r="T4" s="4" t="n">
-        <v>9</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="AC4" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AD4" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="AE4" s="4" t="n">
-        <v>0.08</v>
-      </c>
       <c r="AF4" s="4" t="n">
-        <v>2.47</v>
+        <v>6.04</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.32</v>
+        <v>0.97</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.74</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41727.36111111111</v>
+        <v>44976.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.37</v>
+        <v>0.52</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1</v>
+        <v>0.38</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.99</v>
+        <v>1.15</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.41</v>
+        <v>0.9</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.07</v>
+        <v>0.38</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>4.05</v>
+        <v>2.21</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.66</v>
+        <v>0.63</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.73</v>
+        <v>0.28</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.07</v>
+        <v>0.4</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.2</v>
+        <v>0.45</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.27</v>
+        <v>0.5</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.35</v>
+        <v>0.15</v>
       </c>
       <c r="O5" s="4" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Z5" s="4" t="n">
         <v>1.08</v>
       </c>
-      <c r="P5" s="4" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>1.98</v>
-      </c>
       <c r="AA5" s="4" t="n">
-        <v>0.88</v>
+        <v>0.34</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.78</v>
+        <v>0.31</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.92</v>
+        <v>0.36</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.26</v>
+        <v>0.49</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>3.68</v>
+        <v>2.07</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.55</v>
+        <v>0.2</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.24</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41727.36805555555</v>
+        <v>44976.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>1.91</v>
+        <v>7.58</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1.41</v>
+        <v>5.64</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.11</v>
+        <v>0.67</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>4.16</v>
+        <v>16.71</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>3.39</v>
+        <v>13.41</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.5</v>
+        <v>5.78</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>5.73</v>
+        <v>23.57</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>2.32</v>
+        <v>9.25</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>1.03</v>
+        <v>4.11</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>1.52</v>
+        <v>6</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>1.67</v>
+        <v>6.66</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>1.76</v>
+        <v>7.19</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.48</v>
+        <v>2.05</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>1.5</v>
+        <v>6.02</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>2.13</v>
+        <v>8.41</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>1.26</v>
+        <v>5.21</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.33</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.35</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>22.04</v>
+        <v>84.16</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>4.18</v>
+        <v>16.78</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>1.38</v>
+        <v>5.55</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>2.81</v>
+        <v>11.11</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>1.47</v>
+        <v>5.88</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.22</v>
+        <v>0.78</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>2.8</v>
+        <v>11.7</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>1.22</v>
+        <v>4.9</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>1.08</v>
+        <v>4.41</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>1.27</v>
+        <v>5.17</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>1.75</v>
+        <v>7.07</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.04</v>
+        <v>0.39</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>5.21</v>
+        <v>21.36</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.78</v>
+        <v>3.05</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>1.73</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41727.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>22.96</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41727.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>10.14</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41727.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41727.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>3.67</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41727.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>3.76</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>0.48</v>
+        <v>6.94</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_295.xlsx
+++ b/DATA_goal/Junction_Flooding_295.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44976.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.88</v>
+        <v>8.82</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.62</v>
+        <v>6.24</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.79</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1.96</v>
+        <v>19.6</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.42</v>
+        <v>14.2</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.59</v>
+        <v>5.89</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>1.93</v>
+        <v>19.28</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.1</v>
+        <v>10.96</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.46</v>
+        <v>4.56</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.57</v>
+        <v>5.7</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.78</v>
+        <v>7.76</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.87</v>
+        <v>8.68</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.29</v>
+        <v>2.88</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.71</v>
+        <v>7.14</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.41</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.68</v>
+        <v>6.78</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.56</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.75</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>10.13</v>
+        <v>101.32</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>1.96</v>
+        <v>19.6</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.66</v>
+        <v>6.59</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.22</v>
+        <v>12.19</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.91</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.15</v>
+        <v>11.55</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.58</v>
+        <v>5.82</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.55</v>
+        <v>5.51</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.61</v>
+        <v>6.11</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.86</v>
+        <v>8.57</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.21</v>
+        <v>2.09</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>1.69</v>
+        <v>16.88</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.33</v>
+        <v>3.33</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.82</v>
+        <v>8.24</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44976.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.75</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.4</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.11</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.2</v>
+        <v>1.99</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.64</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.19</v>
       </c>
       <c r="H3" s="4" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="L3" s="4" t="n">
         <v>0.65</v>
       </c>
-      <c r="I3" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>0.06</v>
-      </c>
       <c r="M3" s="4" t="n">
-        <v>0.1</v>
+        <v>1.03</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.55</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.75</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.87</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.09</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.31</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>0.42</v>
+        <v>4.17</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0.25</v>
+        <v>2.54</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.34</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.41</v>
+        <v>4.09</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.61</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.79</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.1</v>
+        <v>0.96</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.1</v>
+        <v>0.97</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0.66</v>
+        <v>6.58</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.14</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44976.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>2.39</v>
+        <v>23.86</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.78</v>
+        <v>17.83</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.15</v>
+        <v>1.5</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>5.22</v>
+        <v>52.21</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>4.25</v>
+        <v>42.49</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.85</v>
+        <v>18.49</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>6.65</v>
+        <v>66.5</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.9</v>
+        <v>29.01</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.29</v>
+        <v>12.92</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.91</v>
+        <v>19.14</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>2.09</v>
+        <v>20.86</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>2.23</v>
+        <v>22.31</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.62</v>
+        <v>6.23</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.88</v>
+        <v>18.8</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.66</v>
+        <v>26.58</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.59</v>
+        <v>15.92</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.64</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.91</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>27.87</v>
+        <v>278.73</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>5.24</v>
+        <v>52.42</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.74</v>
+        <v>17.35</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>3.51</v>
+        <v>35.12</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.86</v>
+        <v>18.55</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.24</v>
+        <v>2.44</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>3.42</v>
+        <v>34.18</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.53</v>
+        <v>15.33</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.36</v>
+        <v>13.61</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.6</v>
+        <v>15.97</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>2.21</v>
+        <v>22.09</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.64</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>6.04</v>
+        <v>60.39</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.97</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>2.17</v>
+        <v>21.69</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44976.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.52</v>
+        <v>5.16</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.38</v>
+        <v>3.81</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.15</v>
+        <v>11.47</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.9</v>
+        <v>8.98</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.38</v>
+        <v>3.83</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>2.21</v>
+        <v>22.08</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.63</v>
+        <v>6.33</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.28</v>
+        <v>2.84</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.4</v>
+        <v>4</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.45</v>
+        <v>4.54</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.5</v>
+        <v>4.99</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.15</v>
+        <v>1.49</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.41</v>
+        <v>4.14</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.58</v>
+        <v>5.79</v>
       </c>
       <c r="Q5" s="4" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="R5" s="4" t="n">
         <v>0.37</v>
       </c>
-      <c r="R5" s="4" t="n">
-        <v>0.04</v>
-      </c>
       <c r="S5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.31</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>5.56</v>
+        <v>55.62</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.19</v>
+        <v>11.89</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.38</v>
+        <v>3.82</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.78</v>
+        <v>7.8</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.41</v>
+        <v>4.05</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.53</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.08</v>
+        <v>10.76</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.34</v>
+        <v>3.37</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.31</v>
+        <v>3.1</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.36</v>
+        <v>3.6</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.49</v>
+        <v>4.88</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.48</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>2.07</v>
+        <v>20.72</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.2</v>
+        <v>2.03</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.48</v>
+        <v>4.77</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_295.xlsx
+++ b/DATA_goal/Junction_Flooding_295.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44976.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>8.82</v>
+        <v>8.821999999999999</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>6.24</v>
+        <v>6.243</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>2.79</v>
+        <v>2.794</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>19.6</v>
+        <v>19.605</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>14.2</v>
+        <v>14.205</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>5.89</v>
+        <v>5.893</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>19.28</v>
+        <v>19.279</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>10.96</v>
+        <v>10.957</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.56</v>
+        <v>4.563</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>5.7</v>
+        <v>5.697</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>7.76</v>
+        <v>7.759</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>8.68</v>
+        <v>8.683999999999999</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.88</v>
+        <v>2.881</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>7.14</v>
+        <v>7.143</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>9.41</v>
+        <v>9.409000000000001</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>6.78</v>
+        <v>6.779</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.56</v>
+        <v>1.556</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.75</v>
+        <v>0.752</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>101.32</v>
+        <v>101.319</v>
       </c>
       <c r="U2" s="4" t="n">
         <v>19.6</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>6.59</v>
+        <v>6.594</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>12.19</v>
+        <v>12.192</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.91</v>
+        <v>6.907</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.8</v>
+        <v>0.798</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>11.55</v>
+        <v>11.548</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>5.82</v>
+        <v>5.824</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.51</v>
+        <v>5.505</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.11</v>
+        <v>6.107</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>8.57</v>
+        <v>8.566000000000001</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.09</v>
+        <v>2.095</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>16.88</v>
+        <v>16.882</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.33</v>
+        <v>3.332</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>8.24</v>
+        <v>8.242000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -759,82 +759,82 @@
         <v>44976.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.75</v>
+        <v>0.751</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.4</v>
+        <v>0.398</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.11</v>
+        <v>1.113</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.99</v>
+        <v>1.989</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.64</v>
+        <v>0.639</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.19</v>
+        <v>0.189</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>6.45</v>
+        <v>6.451</v>
       </c>
       <c r="I3" s="4" t="n">
         <v>1.08</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.44</v>
+        <v>0.436</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.28</v>
+        <v>0.277</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.65</v>
+        <v>0.646</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.03</v>
+        <v>1.031</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.55</v>
+        <v>0.552</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.75</v>
+        <v>0.752</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.87</v>
+        <v>0.868</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.09</v>
+        <v>1.088</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.68</v>
+        <v>0.681</v>
       </c>
       <c r="S3" s="4" t="n">
         <v>0.31</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>4.17</v>
+        <v>4.174</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>2.54</v>
+        <v>2.536</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.694</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.34</v>
+        <v>1.336</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.75</v>
+        <v>0.747</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.051</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>4.09</v>
+        <v>4.092</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.61</v>
+        <v>0.613</v>
       </c>
       <c r="AB3" s="4" t="n">
         <v>0.79</v>
@@ -843,19 +843,19 @@
         <v>0.8</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.96</v>
+        <v>0.962</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.97</v>
+        <v>0.973</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>6.58</v>
+        <v>6.583</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.14</v>
+        <v>0.135</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.88</v>
+        <v>0.882</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44976.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>23.86</v>
+        <v>23.862</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>17.83</v>
+        <v>17.828</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.5</v>
+        <v>1.501</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>52.21</v>
+        <v>52.214</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>42.49</v>
+        <v>42.492</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>18.49</v>
+        <v>18.487</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>66.5</v>
+        <v>66.495</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>29.01</v>
+        <v>29.012</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>12.92</v>
+        <v>12.921</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>19.14</v>
+        <v>19.143</v>
       </c>
       <c r="L4" s="4" t="n">
         <v>20.86</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>22.31</v>
+        <v>22.308</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>6.23</v>
+        <v>6.231</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>18.8</v>
+        <v>18.798</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>26.58</v>
+        <v>26.585</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>15.92</v>
+        <v>15.919</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.64</v>
+        <v>0.643</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.91</v>
+        <v>0.907</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>278.73</v>
+        <v>278.729</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>52.42</v>
+        <v>52.417</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>17.35</v>
+        <v>17.351</v>
       </c>
       <c r="W4" s="4" t="n">
         <v>35.12</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>18.55</v>
+        <v>18.552</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.44</v>
+        <v>2.441</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>34.18</v>
+        <v>34.177</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>15.33</v>
+        <v>15.326</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>13.61</v>
+        <v>13.615</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>15.97</v>
+        <v>15.966</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>22.09</v>
+        <v>22.092</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.64</v>
+        <v>0.644</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>60.39</v>
+        <v>60.386</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>9.710000000000001</v>
+        <v>9.709</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>21.69</v>
+        <v>21.693</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>4.77</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44976.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>7.58</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>5.64</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>16.71</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>13.41</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>5.78</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>23.57</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>6</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>6.66</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>7.19</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>8.41</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>5.21</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>84.16</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>16.78</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>11.11</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>5.17</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>21.36</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>6.94</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_295.xlsx
+++ b/DATA_goal/Junction_Flooding_295.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,103 +967,207 @@
         <v>44976.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>5.16</v>
+        <v>5.156</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>3.81</v>
+        <v>3.805</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>11.47</v>
+        <v>11.474</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>8.98</v>
+        <v>8.976000000000001</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>3.83</v>
+        <v>3.834</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>22.08</v>
+        <v>22.081</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>6.33</v>
+        <v>6.332</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2.84</v>
+        <v>2.845</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>4</v>
+        <v>3.996</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>4.54</v>
+        <v>4.542</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>4.99</v>
+        <v>4.986</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.49</v>
+        <v>1.489</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>4.14</v>
+        <v>4.136</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>5.79</v>
+        <v>5.788</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>3.7</v>
+        <v>3.703</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.37</v>
+        <v>0.373</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.31</v>
+        <v>0.309</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>55.62</v>
+        <v>55.623</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>11.89</v>
+        <v>11.891</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>3.82</v>
+        <v>3.817</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>7.8</v>
+        <v>7.804</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>4.05</v>
+        <v>4.053</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.53</v>
+        <v>0.528</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>10.76</v>
+        <v>10.761</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>3.37</v>
+        <v>3.372</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>3.1</v>
+        <v>3.096</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>3.6</v>
+        <v>3.601</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>4.88</v>
+        <v>4.878</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.48</v>
+        <v>0.483</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>20.72</v>
+        <v>20.725</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.03</v>
+        <v>2.031</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>4.77</v>
+        <v>4.775</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44976.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>7.58</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>16.71</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>13.41</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>23.57</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>7.19</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>8.41</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>84.16</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>16.78</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>11.11</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>7.07</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>21.36</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>6.94</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_295.xlsx
+++ b/DATA_goal/Junction_Flooding_295.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,207 +967,103 @@
         <v>44976.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>5.156</v>
+        <v>5.16</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>3.805</v>
+        <v>3.81</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>11.474</v>
+        <v>11.47</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>8.976000000000001</v>
+        <v>8.98</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>3.834</v>
+        <v>3.83</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>22.081</v>
+        <v>22.08</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>6.332</v>
+        <v>6.33</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2.845</v>
+        <v>2.84</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>3.996</v>
+        <v>4</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>4.542</v>
+        <v>4.54</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>4.986</v>
+        <v>4.99</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.489</v>
+        <v>1.49</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>4.136</v>
+        <v>4.14</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>5.788</v>
+        <v>5.79</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>3.703</v>
+        <v>3.7</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.373</v>
+        <v>0.37</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.309</v>
+        <v>0.31</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>55.623</v>
+        <v>55.62</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>11.891</v>
+        <v>11.89</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>3.817</v>
+        <v>3.82</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>7.804</v>
+        <v>7.8</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>4.053</v>
+        <v>4.05</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.528</v>
+        <v>0.53</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>10.761</v>
+        <v>10.76</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>3.372</v>
+        <v>3.37</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>3.096</v>
+        <v>3.1</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>3.601</v>
+        <v>3.6</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>4.878</v>
+        <v>4.88</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.483</v>
+        <v>0.48</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>20.725</v>
+        <v>20.72</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.031</v>
+        <v>2.03</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>4.775</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44976.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>7.58</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>5.64</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>16.71</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>13.41</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>5.78</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>23.57</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>6</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>6.66</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>7.19</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>8.41</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>5.21</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>84.16</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>16.78</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>11.11</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>5.17</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>21.36</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>6.94</v>
+        <v>4.77</v>
       </c>
     </row>
   </sheetData>
